--- a/98_output/experimento_029_paquetes/simulacion_partido.xlsx
+++ b/98_output/experimento_029_paquetes/simulacion_partido.xlsx
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -665,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -676,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -698,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -720,7 +720,7 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -731,7 +731,7 @@
         <v>8</v>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -742,7 +742,7 @@
         <v>9</v>
       </c>
       <c r="C30" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -753,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -764,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="C32" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -775,7 +775,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -786,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -797,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -808,7 +808,7 @@
         <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -819,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -830,7 +830,7 @@
         <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -841,7 +841,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -852,7 +852,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -863,7 +863,7 @@
         <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1127,7 +1127,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1138,7 +1138,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1149,7 +1149,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1160,7 +1160,7 @@
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1171,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1182,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1204,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1215,7 +1215,7 @@
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1237,7 +1237,7 @@
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1248,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1259,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1270,7 +1270,7 @@
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1281,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1292,7 +1292,7 @@
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1314,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84">
@@ -1336,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
@@ -1347,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -1380,7 +1380,7 @@
         <v>7</v>
       </c>
       <c r="C88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
@@ -1391,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90">
@@ -1402,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -1413,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -1424,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -1435,7 +1435,7 @@
         <v>12</v>
       </c>
       <c r="C93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
@@ -1446,7 +1446,7 @@
         <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -1457,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="C95" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -1468,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
@@ -1490,7 +1490,7 @@
         <v>17</v>
       </c>
       <c r="C98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -1501,7 +1501,7 @@
         <v>18</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100">
@@ -1512,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101">
@@ -1523,7 +1523,7 @@
         <v>20</v>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102">
@@ -2634,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -2645,7 +2645,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
@@ -2678,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="C206" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
@@ -2689,7 +2689,7 @@
         <v>6</v>
       </c>
       <c r="C207" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208">
@@ -2700,7 +2700,7 @@
         <v>7</v>
       </c>
       <c r="C208" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209">
@@ -2711,7 +2711,7 @@
         <v>8</v>
       </c>
       <c r="C209" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210">
@@ -2733,7 +2733,7 @@
         <v>10</v>
       </c>
       <c r="C211" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -2744,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="C212" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
@@ -2755,7 +2755,7 @@
         <v>12</v>
       </c>
       <c r="C213" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -2766,7 +2766,7 @@
         <v>13</v>
       </c>
       <c r="C214" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215">
@@ -2788,7 +2788,7 @@
         <v>15</v>
       </c>
       <c r="C216" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -2799,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="C217" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218">
@@ -2810,7 +2810,7 @@
         <v>17</v>
       </c>
       <c r="C218" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -2821,7 +2821,7 @@
         <v>18</v>
       </c>
       <c r="C219" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="220">
@@ -2843,7 +2843,7 @@
         <v>20</v>
       </c>
       <c r="C221" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222">
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
@@ -3085,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="C243" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244">
@@ -3096,7 +3096,7 @@
         <v>3</v>
       </c>
       <c r="C244" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245">
@@ -3107,7 +3107,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246">
@@ -3118,7 +3118,7 @@
         <v>5</v>
       </c>
       <c r="C246" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
@@ -3129,7 +3129,7 @@
         <v>6</v>
       </c>
       <c r="C247" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248">
@@ -3140,7 +3140,7 @@
         <v>7</v>
       </c>
       <c r="C248" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249">
@@ -3151,7 +3151,7 @@
         <v>8</v>
       </c>
       <c r="C249" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -3162,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="C250" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
@@ -3173,7 +3173,7 @@
         <v>10</v>
       </c>
       <c r="C251" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -3184,7 +3184,7 @@
         <v>11</v>
       </c>
       <c r="C252" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -3195,7 +3195,7 @@
         <v>12</v>
       </c>
       <c r="C253" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254">
@@ -3206,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="C254" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
@@ -3217,7 +3217,7 @@
         <v>14</v>
       </c>
       <c r="C255" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -3228,7 +3228,7 @@
         <v>15</v>
       </c>
       <c r="C256" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
@@ -3239,7 +3239,7 @@
         <v>16</v>
       </c>
       <c r="C257" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
@@ -3250,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="C258" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
@@ -3261,7 +3261,7 @@
         <v>18</v>
       </c>
       <c r="C259" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260">
@@ -3283,7 +3283,7 @@
         <v>20</v>
       </c>
       <c r="C261" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262">
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="C303" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304">
@@ -3756,7 +3756,7 @@
         <v>3</v>
       </c>
       <c r="C304" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="305">
@@ -3767,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="C305" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -3778,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="C306" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307">
@@ -3789,7 +3789,7 @@
         <v>6</v>
       </c>
       <c r="C307" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="308">
@@ -3800,7 +3800,7 @@
         <v>7</v>
       </c>
       <c r="C308" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="309">
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="C309" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310">
@@ -3822,7 +3822,7 @@
         <v>9</v>
       </c>
       <c r="C310" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311">
@@ -3833,7 +3833,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312">
@@ -3844,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="C312" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="313">
@@ -3855,7 +3855,7 @@
         <v>12</v>
       </c>
       <c r="C313" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="314">
@@ -3866,7 +3866,7 @@
         <v>13</v>
       </c>
       <c r="C314" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315">
@@ -3877,7 +3877,7 @@
         <v>14</v>
       </c>
       <c r="C315" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="316">
@@ -3888,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="C316" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317">
@@ -3899,7 +3899,7 @@
         <v>16</v>
       </c>
       <c r="C317" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="318">
@@ -3910,7 +3910,7 @@
         <v>17</v>
       </c>
       <c r="C318" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="319">
@@ -3921,7 +3921,7 @@
         <v>18</v>
       </c>
       <c r="C319" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="320">
@@ -3932,7 +3932,7 @@
         <v>19</v>
       </c>
       <c r="C320" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321">
@@ -3943,7 +3943,7 @@
         <v>20</v>
       </c>
       <c r="C321" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322">
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323">
@@ -3965,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="C323" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324">
@@ -3987,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="326">
@@ -3998,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="C326" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="327">
@@ -4009,7 +4009,7 @@
         <v>6</v>
       </c>
       <c r="C327" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="328">
@@ -4020,7 +4020,7 @@
         <v>7</v>
       </c>
       <c r="C328" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="329">
@@ -4031,7 +4031,7 @@
         <v>8</v>
       </c>
       <c r="C329" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="330">
@@ -4042,7 +4042,7 @@
         <v>9</v>
       </c>
       <c r="C330" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331">
@@ -4064,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="C332" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="333">
@@ -4075,7 +4075,7 @@
         <v>12</v>
       </c>
       <c r="C333" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="334">
@@ -4097,7 +4097,7 @@
         <v>14</v>
       </c>
       <c r="C335" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="336">
@@ -4108,7 +4108,7 @@
         <v>15</v>
       </c>
       <c r="C336" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="337">
@@ -4130,7 +4130,7 @@
         <v>17</v>
       </c>
       <c r="C338" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="339">
@@ -4141,7 +4141,7 @@
         <v>18</v>
       </c>
       <c r="C339" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="340">
@@ -4152,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="C340" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="341">
@@ -4185,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344">
@@ -4207,7 +4207,7 @@
         <v>4</v>
       </c>
       <c r="C345" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -4218,7 +4218,7 @@
         <v>5</v>
       </c>
       <c r="C346" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -4229,7 +4229,7 @@
         <v>6</v>
       </c>
       <c r="C347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -4251,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="C349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -4262,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="C350" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -4284,7 +4284,7 @@
         <v>11</v>
       </c>
       <c r="C352" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -4295,7 +4295,7 @@
         <v>12</v>
       </c>
       <c r="C353" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -4306,7 +4306,7 @@
         <v>13</v>
       </c>
       <c r="C354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355">
@@ -4317,7 +4317,7 @@
         <v>14</v>
       </c>
       <c r="C355" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -4328,7 +4328,7 @@
         <v>15</v>
       </c>
       <c r="C356" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -4339,7 +4339,7 @@
         <v>16</v>
       </c>
       <c r="C357" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -4350,7 +4350,7 @@
         <v>17</v>
       </c>
       <c r="C358" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -4361,7 +4361,7 @@
         <v>18</v>
       </c>
       <c r="C359" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360">
@@ -4372,7 +4372,7 @@
         <v>19</v>
       </c>
       <c r="C360" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -4383,7 +4383,7 @@
         <v>20</v>
       </c>
       <c r="C361" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -4394,7 +4394,7 @@
         <v>1</v>
       </c>
       <c r="C362" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="363">
@@ -4405,7 +4405,7 @@
         <v>2</v>
       </c>
       <c r="C363" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364">
@@ -4416,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="C364" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="365">
@@ -4427,7 +4427,7 @@
         <v>4</v>
       </c>
       <c r="C365" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="366">
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="C366" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="367">
@@ -4449,7 +4449,7 @@
         <v>6</v>
       </c>
       <c r="C367" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="368">
@@ -4460,7 +4460,7 @@
         <v>7</v>
       </c>
       <c r="C368" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="369">
@@ -4471,7 +4471,7 @@
         <v>8</v>
       </c>
       <c r="C369" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="370">
@@ -4482,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="C370" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="371">
@@ -4504,7 +4504,7 @@
         <v>11</v>
       </c>
       <c r="C372" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="373">
@@ -4515,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="C373" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="374">
@@ -4526,7 +4526,7 @@
         <v>13</v>
       </c>
       <c r="C374" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="375">
@@ -4537,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="C375" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="376">
@@ -4548,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="C376" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="377">
@@ -4559,7 +4559,7 @@
         <v>16</v>
       </c>
       <c r="C377" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="378">
@@ -4581,7 +4581,7 @@
         <v>18</v>
       </c>
       <c r="C379" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="380">
@@ -4592,7 +4592,7 @@
         <v>19</v>
       </c>
       <c r="C380" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="381">
@@ -4603,7 +4603,7 @@
         <v>20</v>
       </c>
       <c r="C381" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="382">
@@ -4614,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383">
@@ -4625,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="C383" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384">
@@ -4636,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="C384" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="385">
@@ -4647,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="C385" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="386">
@@ -4658,7 +4658,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="387">
@@ -4669,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="C387" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="388">
@@ -4691,7 +4691,7 @@
         <v>8</v>
       </c>
       <c r="C389" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="390">
@@ -4702,7 +4702,7 @@
         <v>9</v>
       </c>
       <c r="C390" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391">
@@ -4713,7 +4713,7 @@
         <v>10</v>
       </c>
       <c r="C391" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="392">
@@ -4724,7 +4724,7 @@
         <v>11</v>
       </c>
       <c r="C392" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="393">
@@ -4735,7 +4735,7 @@
         <v>12</v>
       </c>
       <c r="C393" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394">
@@ -4746,7 +4746,7 @@
         <v>13</v>
       </c>
       <c r="C394" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395">
@@ -4757,7 +4757,7 @@
         <v>14</v>
       </c>
       <c r="C395" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="396">
@@ -4768,7 +4768,7 @@
         <v>15</v>
       </c>
       <c r="C396" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="397">
@@ -4779,7 +4779,7 @@
         <v>16</v>
       </c>
       <c r="C397" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="398">
@@ -4801,7 +4801,7 @@
         <v>18</v>
       </c>
       <c r="C399" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="400">
@@ -4812,7 +4812,7 @@
         <v>19</v>
       </c>
       <c r="C400" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="401">
